--- a/com.freecrm/testdata/test1.xlsx
+++ b/com.freecrm/testdata/test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\IdeaProjects\SeleniumBootcamp\com.freecrm\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7557EE67-8832-45D4-B687-E712E1112E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591D3B32-2C62-402A-9DAB-8CCA90CF6531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{773280B9-43BA-417F-81C0-5C86A34AFCD9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>email</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>12346</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Abcd1234!</t>
   </si>
 </sst>
 </file>
@@ -504,17 +510,21 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N3"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="27.46484375" customWidth="1"/>
+    <col min="2" max="2" width="16.06640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -557,8 +567,8 @@
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
+      <c r="B2" t="s">
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -601,8 +611,8 @@
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
+      <c r="B3" t="s">
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -647,9 +657,8 @@
     <hyperlink ref="H3" r:id="rId2" xr:uid="{CE8A833D-0BBF-4CFB-B5F1-9D8F99B6E584}"/>
     <hyperlink ref="A2" r:id="rId3" xr:uid="{47107719-AB59-47BE-AC5A-76A21E31EA2C}"/>
     <hyperlink ref="A3" r:id="rId4" xr:uid="{8CAEA2EC-E54B-4A87-977C-F9A7716D1EE9}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{D3FBECD5-BAA1-4932-B19B-25420A58F6A9}"/>
-    <hyperlink ref="B3" r:id="rId6" xr:uid="{A6011624-275B-473B-94E1-E99F1B65C946}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>